--- a/non_explainable_medium_disc/test/disc_free_labels.xlsx
+++ b/non_explainable_medium_disc/test/disc_free_labels.xlsx
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -860,7 +860,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -868,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1356,7 +1356,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1388,7 +1388,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1540,7 +1540,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1572,7 +1572,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1668,7 +1668,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1708,7 +1708,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -1772,7 +1772,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1836,7 +1836,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -2108,7 +2108,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2276,7 +2276,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2356,7 +2356,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -2396,7 +2396,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2716,7 +2716,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -2772,7 +2772,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -2916,7 +2916,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -2948,7 +2948,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -2956,7 +2956,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -2980,7 +2980,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3100,7 +3100,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -3188,7 +3188,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3212,7 +3212,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3252,7 +3252,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3692,7 +3692,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -3700,7 +3700,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -3980,7 +3980,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4228,7 +4228,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -4276,7 +4276,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -4396,7 +4396,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -4652,7 +4652,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -4700,7 +4700,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -4828,7 +4828,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -4972,7 +4972,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -5236,7 +5236,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -5420,7 +5420,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -5596,7 +5596,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -5860,7 +5860,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -6092,7 +6092,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -6172,7 +6172,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -6428,7 +6428,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -6508,7 +6508,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -6580,7 +6580,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -6604,7 +6604,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -6852,7 +6852,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804">
@@ -6892,7 +6892,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -6988,7 +6988,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -7124,7 +7124,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -7188,7 +7188,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -7420,7 +7420,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875">
@@ -7476,7 +7476,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -7556,7 +7556,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -7820,7 +7820,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925">
@@ -7884,7 +7884,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933">
@@ -8156,7 +8156,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -8180,7 +8180,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -8244,7 +8244,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978">
@@ -8316,7 +8316,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987">
@@ -8732,7 +8732,7 @@
         <v>1036</v>
       </c>
       <c r="B1038" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
@@ -8836,7 +8836,7 @@
         <v>1049</v>
       </c>
       <c r="B1051" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -8924,7 +8924,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -9356,7 +9356,7 @@
         <v>1114</v>
       </c>
       <c r="B1116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -9420,7 +9420,7 @@
         <v>1122</v>
       </c>
       <c r="B1124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -9460,7 +9460,7 @@
         <v>1127</v>
       </c>
       <c r="B1129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -9596,7 +9596,7 @@
         <v>1144</v>
       </c>
       <c r="B1146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -9668,7 +9668,7 @@
         <v>1153</v>
       </c>
       <c r="B1155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156">
@@ -9828,7 +9828,7 @@
         <v>1173</v>
       </c>
       <c r="B1175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176">
@@ -9876,7 +9876,7 @@
         <v>1179</v>
       </c>
       <c r="B1181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182">
@@ -9940,7 +9940,7 @@
         <v>1187</v>
       </c>
       <c r="B1189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
@@ -10068,7 +10068,7 @@
         <v>1203</v>
       </c>
       <c r="B1205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206">
@@ -10372,7 +10372,7 @@
         <v>1241</v>
       </c>
       <c r="B1243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244">
@@ -10468,7 +10468,7 @@
         <v>1253</v>
       </c>
       <c r="B1255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -10564,7 +10564,7 @@
         <v>1265</v>
       </c>
       <c r="B1267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268">
@@ -10684,7 +10684,7 @@
         <v>1280</v>
       </c>
       <c r="B1282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283">
@@ -10788,7 +10788,7 @@
         <v>1293</v>
       </c>
       <c r="B1295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -10820,7 +10820,7 @@
         <v>1297</v>
       </c>
       <c r="B1299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -10852,7 +10852,7 @@
         <v>1301</v>
       </c>
       <c r="B1303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304">
@@ -10900,7 +10900,7 @@
         <v>1307</v>
       </c>
       <c r="B1309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -10924,7 +10924,7 @@
         <v>1310</v>
       </c>
       <c r="B1312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313">
@@ -11044,7 +11044,7 @@
         <v>1325</v>
       </c>
       <c r="B1327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328">
@@ -11140,7 +11140,7 @@
         <v>1337</v>
       </c>
       <c r="B1339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340">
@@ -11228,7 +11228,7 @@
         <v>1348</v>
       </c>
       <c r="B1350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -11580,7 +11580,7 @@
         <v>1392</v>
       </c>
       <c r="B1394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1395">
@@ -11660,7 +11660,7 @@
         <v>1402</v>
       </c>
       <c r="B1404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
@@ -11700,7 +11700,7 @@
         <v>1407</v>
       </c>
       <c r="B1409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410">
@@ -11836,7 +11836,7 @@
         <v>1424</v>
       </c>
       <c r="B1426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -11932,7 +11932,7 @@
         <v>1436</v>
       </c>
       <c r="B1438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439">
@@ -11964,7 +11964,7 @@
         <v>1440</v>
       </c>
       <c r="B1442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1443">
@@ -12108,7 +12108,7 @@
         <v>1458</v>
       </c>
       <c r="B1460" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1461">
@@ -12892,7 +12892,7 @@
         <v>1556</v>
       </c>
       <c r="B1558" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1559">
@@ -12956,7 +12956,7 @@
         <v>1564</v>
       </c>
       <c r="B1566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1567">
@@ -13052,7 +13052,7 @@
         <v>1576</v>
       </c>
       <c r="B1578" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579">
@@ -13068,7 +13068,7 @@
         <v>1578</v>
       </c>
       <c r="B1580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581">
@@ -13196,7 +13196,7 @@
         <v>1594</v>
       </c>
       <c r="B1596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1597">
@@ -13284,7 +13284,7 @@
         <v>1605</v>
       </c>
       <c r="B1607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1608">
@@ -13420,7 +13420,7 @@
         <v>1622</v>
       </c>
       <c r="B1624" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625">
@@ -13428,7 +13428,7 @@
         <v>1623</v>
       </c>
       <c r="B1625" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626">
@@ -13516,7 +13516,7 @@
         <v>1634</v>
       </c>
       <c r="B1636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1637">
@@ -13724,7 +13724,7 @@
         <v>1660</v>
       </c>
       <c r="B1662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1663">
@@ -13836,7 +13836,7 @@
         <v>1674</v>
       </c>
       <c r="B1676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1677">
@@ -14020,7 +14020,7 @@
         <v>1697</v>
       </c>
       <c r="B1699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1700">
@@ -14124,7 +14124,7 @@
         <v>1710</v>
       </c>
       <c r="B1712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1713">
@@ -14268,7 +14268,7 @@
         <v>1728</v>
       </c>
       <c r="B1730" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1731">
@@ -14284,7 +14284,7 @@
         <v>1730</v>
       </c>
       <c r="B1732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -14316,7 +14316,7 @@
         <v>1734</v>
       </c>
       <c r="B1736" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737">
@@ -14820,7 +14820,7 @@
         <v>1797</v>
       </c>
       <c r="B1799" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1800">
@@ -14836,7 +14836,7 @@
         <v>1799</v>
       </c>
       <c r="B1801" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1802">
@@ -15044,7 +15044,7 @@
         <v>1825</v>
       </c>
       <c r="B1827" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1828">
@@ -15108,7 +15108,7 @@
         <v>1833</v>
       </c>
       <c r="B1835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1836">
@@ -15388,7 +15388,7 @@
         <v>1868</v>
       </c>
       <c r="B1870" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1871">
@@ -15556,7 +15556,7 @@
         <v>1889</v>
       </c>
       <c r="B1891" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892">
@@ -15668,7 +15668,7 @@
         <v>1903</v>
       </c>
       <c r="B1905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1906">
@@ -15788,7 +15788,7 @@
         <v>1918</v>
       </c>
       <c r="B1920" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1921">
@@ -15820,7 +15820,7 @@
         <v>1922</v>
       </c>
       <c r="B1924" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925">
@@ -15924,7 +15924,7 @@
         <v>1935</v>
       </c>
       <c r="B1937" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1938">
@@ -15964,7 +15964,7 @@
         <v>1940</v>
       </c>
       <c r="B1942" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1943">
@@ -16092,7 +16092,7 @@
         <v>1956</v>
       </c>
       <c r="B1958" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1959">
@@ -16204,7 +16204,7 @@
         <v>1970</v>
       </c>
       <c r="B1972" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1973">
@@ -16284,7 +16284,7 @@
         <v>1980</v>
       </c>
       <c r="B1982" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1983">
@@ -16380,7 +16380,7 @@
         <v>1992</v>
       </c>
       <c r="B1994" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1995">
@@ -16444,7 +16444,7 @@
         <v>2000</v>
       </c>
       <c r="B2002" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2003">
@@ -16476,7 +16476,7 @@
         <v>2004</v>
       </c>
       <c r="B2006" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007">
@@ -16500,7 +16500,7 @@
         <v>2007</v>
       </c>
       <c r="B2009" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2010">
@@ -16644,7 +16644,7 @@
         <v>2025</v>
       </c>
       <c r="B2027" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2028">
@@ -16796,7 +16796,7 @@
         <v>2044</v>
       </c>
       <c r="B2046" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2047">
@@ -16820,7 +16820,7 @@
         <v>2047</v>
       </c>
       <c r="B2049" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2050">
@@ -16860,7 +16860,7 @@
         <v>2052</v>
       </c>
       <c r="B2054" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2055">
@@ -17044,7 +17044,7 @@
         <v>2075</v>
       </c>
       <c r="B2077" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2078">
@@ -17092,7 +17092,7 @@
         <v>2081</v>
       </c>
       <c r="B2083" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2084">
@@ -17244,7 +17244,7 @@
         <v>2100</v>
       </c>
       <c r="B2102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2103">
@@ -17268,7 +17268,7 @@
         <v>2103</v>
       </c>
       <c r="B2105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2106">
@@ -17396,7 +17396,7 @@
         <v>2119</v>
       </c>
       <c r="B2121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2122">
@@ -17460,7 +17460,7 @@
         <v>2127</v>
       </c>
       <c r="B2129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2130">
@@ -17484,7 +17484,7 @@
         <v>2130</v>
       </c>
       <c r="B2132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133">
@@ -17524,7 +17524,7 @@
         <v>2135</v>
       </c>
       <c r="B2137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2138">
@@ -17788,7 +17788,7 @@
         <v>2168</v>
       </c>
       <c r="B2170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2171">
@@ -17828,7 +17828,7 @@
         <v>2173</v>
       </c>
       <c r="B2175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2176">
@@ -17852,7 +17852,7 @@
         <v>2176</v>
       </c>
       <c r="B2178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2179">
@@ -18052,7 +18052,7 @@
         <v>2201</v>
       </c>
       <c r="B2203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2204">
@@ -18364,7 +18364,7 @@
         <v>2240</v>
       </c>
       <c r="B2242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -18380,7 +18380,7 @@
         <v>2242</v>
       </c>
       <c r="B2244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2245">
@@ -18492,7 +18492,7 @@
         <v>2256</v>
       </c>
       <c r="B2258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2259">
@@ -18516,7 +18516,7 @@
         <v>2259</v>
       </c>
       <c r="B2261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2262">
@@ -18604,7 +18604,7 @@
         <v>2270</v>
       </c>
       <c r="B2272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2273">
@@ -18620,7 +18620,7 @@
         <v>2272</v>
       </c>
       <c r="B2274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -18692,7 +18692,7 @@
         <v>2281</v>
       </c>
       <c r="B2283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2284">
@@ -18796,7 +18796,7 @@
         <v>2294</v>
       </c>
       <c r="B2296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2297">
@@ -18884,7 +18884,7 @@
         <v>2305</v>
       </c>
       <c r="B2307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308">
@@ -19260,7 +19260,7 @@
         <v>2352</v>
       </c>
       <c r="B2354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2355">
@@ -19300,7 +19300,7 @@
         <v>2357</v>
       </c>
       <c r="B2359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360">
@@ -19356,7 +19356,7 @@
         <v>2364</v>
       </c>
       <c r="B2366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2367">
@@ -19372,7 +19372,7 @@
         <v>2366</v>
       </c>
       <c r="B2368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2369">
@@ -19724,7 +19724,7 @@
         <v>2410</v>
       </c>
       <c r="B2412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2413">
@@ -20092,7 +20092,7 @@
         <v>2456</v>
       </c>
       <c r="B2458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2459">
@@ -20132,7 +20132,7 @@
         <v>2461</v>
       </c>
       <c r="B2463" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464">
@@ -20364,7 +20364,7 @@
         <v>2490</v>
       </c>
       <c r="B2492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -20388,7 +20388,7 @@
         <v>2493</v>
       </c>
       <c r="B2495" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2496">
@@ -20404,7 +20404,7 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498">
@@ -20604,7 +20604,7 @@
         <v>2520</v>
       </c>
       <c r="B2522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2523">
@@ -20716,7 +20716,7 @@
         <v>2534</v>
       </c>
       <c r="B2536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2537">
@@ -20828,7 +20828,7 @@
         <v>2548</v>
       </c>
       <c r="B2550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2551">
@@ -21108,7 +21108,7 @@
         <v>2583</v>
       </c>
       <c r="B2585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2586">
@@ -21188,7 +21188,7 @@
         <v>2593</v>
       </c>
       <c r="B2595" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2596">
@@ -21212,7 +21212,7 @@
         <v>2596</v>
       </c>
       <c r="B2598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2599">
@@ -21284,7 +21284,7 @@
         <v>2605</v>
       </c>
       <c r="B2607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2608">
@@ -22188,7 +22188,7 @@
         <v>2718</v>
       </c>
       <c r="B2720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2721">
@@ -22500,7 +22500,7 @@
         <v>2757</v>
       </c>
       <c r="B2759" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2760">
@@ -22756,7 +22756,7 @@
         <v>2789</v>
       </c>
       <c r="B2791" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2792">
@@ -22908,7 +22908,7 @@
         <v>2808</v>
       </c>
       <c r="B2810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2811">
@@ -23508,7 +23508,7 @@
         <v>2883</v>
       </c>
       <c r="B2885" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2886">
@@ -23804,7 +23804,7 @@
         <v>2920</v>
       </c>
       <c r="B2922" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2923">
@@ -24012,7 +24012,7 @@
         <v>2946</v>
       </c>
       <c r="B2948" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2949">
@@ -24076,7 +24076,7 @@
         <v>2954</v>
       </c>
       <c r="B2956" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2957">
@@ -25012,7 +25012,7 @@
         <v>3071</v>
       </c>
       <c r="B3073" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3074">
@@ -25236,7 +25236,7 @@
         <v>3099</v>
       </c>
       <c r="B3101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3102">
@@ -25620,7 +25620,7 @@
         <v>3147</v>
       </c>
       <c r="B3149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3150">
@@ -25796,7 +25796,7 @@
         <v>3169</v>
       </c>
       <c r="B3171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3172">
@@ -25804,7 +25804,7 @@
         <v>3170</v>
       </c>
       <c r="B3172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3173">
@@ -26140,7 +26140,7 @@
         <v>3212</v>
       </c>
       <c r="B3214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3215">
@@ -26172,7 +26172,7 @@
         <v>3216</v>
       </c>
       <c r="B3218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3219">
@@ -26180,7 +26180,7 @@
         <v>3217</v>
       </c>
       <c r="B3219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3220">
@@ -26404,7 +26404,7 @@
         <v>3245</v>
       </c>
       <c r="B3247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3248">
@@ -26508,7 +26508,7 @@
         <v>3258</v>
       </c>
       <c r="B3260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3261">
@@ -26556,7 +26556,7 @@
         <v>3264</v>
       </c>
       <c r="B3266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3267">
@@ -26580,7 +26580,7 @@
         <v>3267</v>
       </c>
       <c r="B3269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3270">
@@ -27140,7 +27140,7 @@
         <v>3337</v>
       </c>
       <c r="B3339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3340">
@@ -27196,7 +27196,7 @@
         <v>3344</v>
       </c>
       <c r="B3346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3347">
@@ -27268,7 +27268,7 @@
         <v>3353</v>
       </c>
       <c r="B3355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3356">
@@ -27540,7 +27540,7 @@
         <v>3387</v>
       </c>
       <c r="B3389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3390">
@@ -27628,7 +27628,7 @@
         <v>3398</v>
       </c>
       <c r="B3400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3401">
@@ -27676,7 +27676,7 @@
         <v>3404</v>
       </c>
       <c r="B3406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3407">
@@ -27892,7 +27892,7 @@
         <v>3431</v>
       </c>
       <c r="B3433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3434">
@@ -27940,7 +27940,7 @@
         <v>3437</v>
       </c>
       <c r="B3439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3440">
@@ -28308,7 +28308,7 @@
         <v>3483</v>
       </c>
       <c r="B3485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3486">
@@ -28332,7 +28332,7 @@
         <v>3486</v>
       </c>
       <c r="B3488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3489">
@@ -28484,7 +28484,7 @@
         <v>3505</v>
       </c>
       <c r="B3507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3508">
@@ -28500,7 +28500,7 @@
         <v>3507</v>
       </c>
       <c r="B3509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3510">
@@ -28564,7 +28564,7 @@
         <v>3515</v>
       </c>
       <c r="B3517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3518">
@@ -28716,7 +28716,7 @@
         <v>3534</v>
       </c>
       <c r="B3536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3537">
@@ -28764,7 +28764,7 @@
         <v>3540</v>
       </c>
       <c r="B3542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3543">
@@ -28868,7 +28868,7 @@
         <v>3553</v>
       </c>
       <c r="B3555" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3556">
@@ -29028,7 +29028,7 @@
         <v>3573</v>
       </c>
       <c r="B3575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3576">
@@ -29068,7 +29068,7 @@
         <v>3578</v>
       </c>
       <c r="B3580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3581">
@@ -29276,7 +29276,7 @@
         <v>3604</v>
       </c>
       <c r="B3606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3607">
@@ -29292,7 +29292,7 @@
         <v>3606</v>
       </c>
       <c r="B3608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3609">
@@ -29332,7 +29332,7 @@
         <v>3611</v>
       </c>
       <c r="B3613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3614">
@@ -29356,7 +29356,7 @@
         <v>3614</v>
       </c>
       <c r="B3616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3617">
@@ -29404,7 +29404,7 @@
         <v>3620</v>
       </c>
       <c r="B3622" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3623">
@@ -29524,7 +29524,7 @@
         <v>3635</v>
       </c>
       <c r="B3637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3638">
@@ -29908,7 +29908,7 @@
         <v>3683</v>
       </c>
       <c r="B3685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3686">
@@ -29988,7 +29988,7 @@
         <v>3693</v>
       </c>
       <c r="B3695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3696">
@@ -30300,7 +30300,7 @@
         <v>3732</v>
       </c>
       <c r="B3734" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3735">
@@ -30404,7 +30404,7 @@
         <v>3745</v>
       </c>
       <c r="B3747" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3748">
@@ -30524,7 +30524,7 @@
         <v>3760</v>
       </c>
       <c r="B3762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3763">
@@ -30532,7 +30532,7 @@
         <v>3761</v>
       </c>
       <c r="B3763" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3764">
@@ -30612,7 +30612,7 @@
         <v>3771</v>
       </c>
       <c r="B3773" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3774">
@@ -30860,7 +30860,7 @@
         <v>3802</v>
       </c>
       <c r="B3804" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3805">
@@ -31100,7 +31100,7 @@
         <v>3832</v>
       </c>
       <c r="B3834" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3835">
@@ -31108,7 +31108,7 @@
         <v>3833</v>
       </c>
       <c r="B3835" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3836">
@@ -31132,7 +31132,7 @@
         <v>3836</v>
       </c>
       <c r="B3838" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3839">
@@ -31484,7 +31484,7 @@
         <v>3880</v>
       </c>
       <c r="B3882" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3883">
@@ -31660,7 +31660,7 @@
         <v>3902</v>
       </c>
       <c r="B3904" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3905">
@@ -31908,7 +31908,7 @@
         <v>3933</v>
       </c>
       <c r="B3935" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3936">
@@ -31996,7 +31996,7 @@
         <v>3944</v>
       </c>
       <c r="B3946" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3947">
@@ -32076,7 +32076,7 @@
         <v>3954</v>
       </c>
       <c r="B3956" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3957">
@@ -32204,7 +32204,7 @@
         <v>3970</v>
       </c>
       <c r="B3972" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3973">
@@ -32244,7 +32244,7 @@
         <v>3975</v>
       </c>
       <c r="B3977" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3978">
@@ -32628,7 +32628,7 @@
         <v>4023</v>
       </c>
       <c r="B4025" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4026">
@@ -32772,7 +32772,7 @@
         <v>4041</v>
       </c>
       <c r="B4043" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4044">
@@ -32852,7 +32852,7 @@
         <v>4051</v>
       </c>
       <c r="B4053" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4054">
@@ -33012,7 +33012,7 @@
         <v>4071</v>
       </c>
       <c r="B4073" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4074">
@@ -33172,7 +33172,7 @@
         <v>4091</v>
       </c>
       <c r="B4093" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4094">
@@ -33284,7 +33284,7 @@
         <v>4105</v>
       </c>
       <c r="B4107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4108">
@@ -33508,7 +33508,7 @@
         <v>4133</v>
       </c>
       <c r="B4135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4136">
@@ -33972,7 +33972,7 @@
         <v>4191</v>
       </c>
       <c r="B4193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4194">
@@ -34364,7 +34364,7 @@
         <v>4240</v>
       </c>
       <c r="B4242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4243">
@@ -34588,7 +34588,7 @@
         <v>4268</v>
       </c>
       <c r="B4270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4271">
@@ -34652,7 +34652,7 @@
         <v>4276</v>
       </c>
       <c r="B4278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4279">
@@ -34812,7 +34812,7 @@
         <v>4296</v>
       </c>
       <c r="B4298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4299">
@@ -34860,7 +34860,7 @@
         <v>4302</v>
       </c>
       <c r="B4304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4305">
@@ -34908,7 +34908,7 @@
         <v>4308</v>
       </c>
       <c r="B4310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4311">
@@ -34972,7 +34972,7 @@
         <v>4316</v>
       </c>
       <c r="B4318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4319">
@@ -34996,7 +34996,7 @@
         <v>4319</v>
       </c>
       <c r="B4321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4322">
@@ -35028,7 +35028,7 @@
         <v>4323</v>
       </c>
       <c r="B4325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4326">
@@ -35044,7 +35044,7 @@
         <v>4325</v>
       </c>
       <c r="B4327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4328">
@@ -35252,7 +35252,7 @@
         <v>4351</v>
       </c>
       <c r="B4353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4354">
@@ -35324,7 +35324,7 @@
         <v>4360</v>
       </c>
       <c r="B4362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4363">
@@ -35428,7 +35428,7 @@
         <v>4373</v>
       </c>
       <c r="B4375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4376">
@@ -35436,7 +35436,7 @@
         <v>4374</v>
       </c>
       <c r="B4376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4377">
@@ -35588,7 +35588,7 @@
         <v>4393</v>
       </c>
       <c r="B4395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4396">
@@ -35636,7 +35636,7 @@
         <v>4399</v>
       </c>
       <c r="B4401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4402">
@@ -35676,7 +35676,7 @@
         <v>4404</v>
       </c>
       <c r="B4406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4407">
@@ -35772,7 +35772,7 @@
         <v>4416</v>
       </c>
       <c r="B4418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4419">
@@ -36276,7 +36276,7 @@
         <v>4479</v>
       </c>
       <c r="B4481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4482">
@@ -36372,7 +36372,7 @@
         <v>4491</v>
       </c>
       <c r="B4493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4494">
@@ -36908,7 +36908,7 @@
         <v>4558</v>
       </c>
       <c r="B4560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4561">
@@ -37164,7 +37164,7 @@
         <v>4590</v>
       </c>
       <c r="B4592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4593">
@@ -37252,7 +37252,7 @@
         <v>4601</v>
       </c>
       <c r="B4603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4604">
@@ -37500,7 +37500,7 @@
         <v>4632</v>
       </c>
       <c r="B4634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4635">
@@ -37532,7 +37532,7 @@
         <v>4636</v>
       </c>
       <c r="B4638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4639">
@@ -37668,7 +37668,7 @@
         <v>4653</v>
       </c>
       <c r="B4655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4656">
@@ -37684,7 +37684,7 @@
         <v>4655</v>
       </c>
       <c r="B4657" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4658">
@@ -37708,7 +37708,7 @@
         <v>4658</v>
       </c>
       <c r="B4660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4661">
@@ -37740,7 +37740,7 @@
         <v>4662</v>
       </c>
       <c r="B4664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4665">
@@ -37868,7 +37868,7 @@
         <v>4678</v>
       </c>
       <c r="B4680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4681">
@@ -37996,7 +37996,7 @@
         <v>4694</v>
       </c>
       <c r="B4696" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4697">
@@ -38156,7 +38156,7 @@
         <v>4714</v>
       </c>
       <c r="B4716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4717">
@@ -38196,7 +38196,7 @@
         <v>4719</v>
       </c>
       <c r="B4721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4722">
@@ -38348,7 +38348,7 @@
         <v>4738</v>
       </c>
       <c r="B4740" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4741">
@@ -38524,7 +38524,7 @@
         <v>4760</v>
       </c>
       <c r="B4762" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4763">
@@ -38652,7 +38652,7 @@
         <v>4776</v>
       </c>
       <c r="B4778" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4779">
@@ -38748,7 +38748,7 @@
         <v>4788</v>
       </c>
       <c r="B4790" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4791">
@@ -38820,7 +38820,7 @@
         <v>4797</v>
       </c>
       <c r="B4799" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4800">
@@ -38868,7 +38868,7 @@
         <v>4803</v>
       </c>
       <c r="B4805" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4806">
@@ -38996,7 +38996,7 @@
         <v>4819</v>
       </c>
       <c r="B4821" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4822">
@@ -39212,7 +39212,7 @@
         <v>4846</v>
       </c>
       <c r="B4848" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4849">
@@ -39332,7 +39332,7 @@
         <v>4861</v>
       </c>
       <c r="B4863" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4864">
@@ -39476,7 +39476,7 @@
         <v>4879</v>
       </c>
       <c r="B4881" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4882">
@@ -39796,7 +39796,7 @@
         <v>4919</v>
       </c>
       <c r="B4921" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4922">
@@ -39932,7 +39932,7 @@
         <v>4936</v>
       </c>
       <c r="B4938" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4939">
@@ -39956,7 +39956,7 @@
         <v>4939</v>
       </c>
       <c r="B4941" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4942">
@@ -40308,7 +40308,7 @@
         <v>4983</v>
       </c>
       <c r="B4985" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4986">
